--- a/docs/BRK_GoalsCanvas_Afnemers.xlsx
+++ b/docs/BRK_GoalsCanvas_Afnemers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comites1-my.sharepoint.com/personal/c_dingemanse_comites_nl/Documents/BRK bevragingen/business requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0cdfa699d55e43c7/King/Haal Centraal-Bevragingen BRK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{D89F19E3-07F9-42F2-9ED6-F90041CE1076}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{E97A24E1-7478-463C-851B-798AA6ACCC86}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C115A9-59A4-4EA5-972D-3B266C6E2D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{EED3A84A-6687-4746-A6A9-63F0484E92C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EED3A84A-6687-4746-A6A9-63F0484E92C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Actueel" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t xml:space="preserve">invoeren nummeraanduiding, free query op postcode + huisnummer-letter-toevoeging, openbare ruimtenaam huisnummer-letter-toevoeging (fuzzy), kaart (contour, punt) </t>
   </si>
   <si>
-    <t>buitenlands natuurlijk persoon, niet natuurlijke persoon, maatschappelijke activiteit of vestiging</t>
-  </si>
-  <si>
     <t>BUS38</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve">eigenaren Kadastraal Onroerende Zaak en hun aandeel, inclusief het gezamenlijk aandeel </t>
-  </si>
-  <si>
-    <t>zakelijk rechten en de bijbehorende gerechtigden inclusief de stapeling en gezamenlijk aandeel</t>
   </si>
   <si>
     <t>zekerheidsstellingen hypothecair + link naar de akte kadastraal onroerende zaken</t>
@@ -461,28 +455,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(inclusief adressen van kadasterpersonen)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>zoeken ingeschreven natuurlijke personen (buiten scope)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> free query op persoonskenmerken van een buitenlandse np en free query op kenmerken van een nnp, maatschappelijke activiteit of vestiging  </t>
     </r>
   </si>
   <si>
@@ -506,20 +478,6 @@
       </rPr>
       <t xml:space="preserve">nummeraanduiding, BAGID verblijfsobject, BAGID standplaats, BAGID ligplaats, NIET ADRESSEERBAAR OBJECT, free query op postcode + huisnummer-letter-toevoeging, openbare ruimtenaam huisnummer-letter-toevoeging (fuzzy), kaart (contour, punt) </t>
     </r>
-  </si>
-  <si>
-    <t>/kadastraalOnroerendeZaken/{kadastraleAanduiding}/zakelijkGerechtigden</t>
-  </si>
-  <si>
-    <t>/KadastraalOnroerendeZaken/{kadastraleAanduiding}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/KadastraalOnroerendeZaken/{kadastraleAanduiding}/PrivaatrechtelijkeBeperkingen
-</t>
-  </si>
-  <si>
-    <t>/KadastraalOnroerendeZaken/{kadastraleAanduiding}/beslagleggingen
-/KadastraalOnroerendeZaken/{kadastraleAanduiding}/beslagleggingen/aktes</t>
   </si>
   <si>
     <t>/KadastraalOnroerendeZaken/{kadastraleAanduiding}/ZakelijkGerechtigden/aktes
@@ -560,7 +518,127 @@
     </r>
   </si>
   <si>
-    <t>/KadastraalOnroerendeZaken/{kadastraleAanduiding}/hypotheken</t>
+    <t xml:space="preserve">kadastrale eigendommen van een persoon vinden  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alle kadastraal onroerende zaken waarop een persoon een zakelijk recht heeft vinden. </t>
+  </si>
+  <si>
+    <t>kadastraal onroerende zaken met een zakelijk recht van een persoon, inclusief het gezamenlijk aandeel</t>
+  </si>
+  <si>
+    <t>kadastraal onroerende zaken  in eigendom van een persoon, inclusief het gezamenlijk aandeel</t>
+  </si>
+  <si>
+    <t>het aantal kadastraal onroerende zaken in eigendom van een persoon, inclusief het gezamenlijk aandeel</t>
+  </si>
+  <si>
+    <t>kadastraal onroerende zaken waarvan het erfpachtcontract eindigt gedurende de opgegeven periode</t>
+  </si>
+  <si>
+    <t>hypotheken van de geldverstrekker vinden</t>
+  </si>
+  <si>
+    <t>A+3. zoek hypotheken van de geldverstrekker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypotheken van de geldverstrekker </t>
+  </si>
+  <si>
+    <t>hypotheken van de onderpandgever vinden</t>
+  </si>
+  <si>
+    <t>A+4 zoek hypotheken onderpandgever</t>
+  </si>
+  <si>
+    <t>hypotheken van de onderpandgever</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kadastraal onroerende zaken waarop beslag is gelegd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gedurende de opgegeven periode</t>
+    </r>
+  </si>
+  <si>
+    <t>BUITEN SCOPE KWARTIERMAKERSFASE</t>
+  </si>
+  <si>
+    <t>aangrenzende percelen vinden en inzien</t>
+  </si>
+  <si>
+    <t>raadpleeg aangrenzende percelen + appartmentsrechten</t>
+  </si>
+  <si>
+    <t>aangrenzende percelen + appartementsrechten</t>
+  </si>
+  <si>
+    <t>aangrenzende percelen + appartementsrechten vinden</t>
+  </si>
+  <si>
+    <t>Kan ook met contour!</t>
+  </si>
+  <si>
+    <t>/KadastraalOnroerendeZaken/{kadastraalObjectIdentificatie}</t>
+  </si>
+  <si>
+    <t>/KadastraalOnroerendeZaken/{kadastraalObjectIdentificatie}/hypotheken</t>
+  </si>
+  <si>
+    <t>/kadastraalOnroerendeZaken/{kadastraalObjectIdentificatie}/zakelijkGerechtigden?typegerechtigde="eigenaar"</t>
+  </si>
+  <si>
+    <t>/kadastraalOnroerendeZaken/{kadastraalObjectIdentificatie}/zakelijkGerechtigden</t>
+  </si>
+  <si>
+    <t>zakelijk rechten en de bijbehorende gerechtigden inclusief de stapeling en gezamenlijk aandeel, en de aantekeningen en de erfpachtcanons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/KadastraalOnroerendeZaken/{kadastraalObjectIdentificatie}/PrivaatrechtelijkeBeperkingen
+</t>
+  </si>
+  <si>
+    <t>/KadastraalOnroerendeZaken/{kadastraalObjectIdentificatie}/beslagleggingen
+/KadastraalOnroerendeZaken/{kadastraalObjectIdentificatie}/beslagleggingen/aktes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zoeken ingeschreven natuurlijke personen (buiten scope)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> free query op persoonskenmerken van kadasterNatuurlijkPersoon, KadasterNietNatuurlijkPersoon, IngeschrevenNietNatuurlijkPersoon </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">kadasterNatuurlijkPersoon, KadasterNietNatuurlijkPersoon, IngeschrevenNietNatuurlijkPersoon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/kadastraalonroerendezaken/?BSN=132451412&amp;typegerechtigde=eigenaar
+/kadastraalonroerendezaken/?KadastraalPersoonIdentificatie=NL.IMKAD.PERSOON.132451412&amp;typegerechtigde=eigenaar
+Via de identificatie van de zakelijkgerechtigde .
+</t>
   </si>
   <si>
     <r>
@@ -584,27 +662,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, KadasterPersoonIdentificatie)</t>
+      <t>, KadastraalPersoonIdentificatie)</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">kadastrale eigendommen van een persoon vinden  </t>
-  </si>
-  <si>
-    <t>/kadastraalOnroerendeZaken/{kadastraleAanduiding}/zakelijkGerechtigden?typegerechtigde="eigenaar"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/kadastraalonroerendezaken/?BSN=132451412&amp;typegerechtigde=eigenaar
-/kadastraalonroerendezaken/?KadastraleIdentificatie=NL.IMKAD.PERSOON.132451412&amp;typegerechtigde=eigenaar
-Via de identificatie van de zakelijkgerechtigde .
-</t>
-  </si>
-  <si>
     <t>/kadastraalonroerendezaken/?BSN=132451412
-/kadastraalonroerendezaken/?KadastraleIdentificatie=NL.IMKAD.PERSOON.132451412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alle kadastraal onroerende zaken waarop een persoon een zakelijk recht heeft vinden. </t>
+/kadastraalonroerendezaken/?KadastraalPersoonIdentificatie=NL.IMKAD.PERSOON.132451412</t>
   </si>
   <si>
     <r>
@@ -628,56 +691,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> KadasterpersoonIdentificatie)</t>
+      <t xml:space="preserve"> KadastraalPersoonIdentificatie)</t>
     </r>
   </si>
   <si>
-    <t>kadastraal onroerende zaken met een zakelijk recht van een persoon, inclusief het gezamenlijk aandeel</t>
-  </si>
-  <si>
-    <t>kadastraal onroerende zaken  in eigendom van een persoon, inclusief het gezamenlijk aandeel</t>
-  </si>
-  <si>
-    <t>het aantal kadastraal onroerende zaken in eigendom van een persoon, inclusief het gezamenlijk aandeel</t>
-  </si>
-  <si>
-    <t>kadastraal onroerende zaken waarvan het erfpachtcontract eindigt gedurende de opgegeven periode</t>
-  </si>
-  <si>
-    <t>hypotheken van de geldverstrekker vinden</t>
-  </si>
-  <si>
-    <t>A+3. zoek hypotheken van de geldverstrekker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hypotheken van de geldverstrekker </t>
-  </si>
-  <si>
     <t>/hypotheken/?BSN=132451412&amp;type=geldverstrekker
-/hypotheken/?KadastraleIdentificatie=NL.IMKAD.PERSOON.132451412&amp;type=geldverstrekker</t>
-  </si>
-  <si>
-    <t>hypotheken van de onderpandgever vinden</t>
-  </si>
-  <si>
-    <t>A+4 zoek hypotheken onderpandgever</t>
-  </si>
-  <si>
-    <t>hypotheken van de onderpandgever</t>
+/hypotheken/?KadastraalPersoonIdentificatie=NL.IMKAD.PERSOON.132451412&amp;type=geldverstrekker</t>
   </si>
   <si>
     <t>/hypotheken/?BSN=132451412&amp;type=onderpandgever
-/hypotheken/?KadastraleIdentificatie=NL.IMKAD.PERSOON.132451412&amp;type=onderpandgever</t>
+/hypotheken/?KadastraalPersoonIdentificatie=NL.IMKAD.PERSOON.132451412&amp;type=onderpandgever</t>
   </si>
   <si>
     <t xml:space="preserve">/kadastraalonroerendezaken/?BSN=132451412&amp;typegerechtigde=eigenaar&amp;fields=kadastraleObjectIdentificatie
-/kadastraalonroerendezaken/?KadastraleIdentificatie=NL.IMKAD.PERSOON.132451412&amp;typegerechtigde=eigenaar&amp;fields=kadastraleObjectIdentificatie
+/kadastraalonroerendezaken/?KadastraalPersoonIdentificatie=NL.IMKAD.PERSOON.132451412&amp;typegerechtigde=eigenaar&amp;fields=kadastraleObjectIdentificatie
 Via de identificatie van de zakelijkgerechtigde .
 </t>
-  </si>
-  <si>
-    <t>/beslagen/?BSN=132451412&amp;type=beslaglegger
-/beslagen/?KadastraleIdentificatie=NL.IMKAD.PERSOON.132451412&amp;type=beslaglegger</t>
   </si>
   <si>
     <r>
@@ -701,8 +730,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> KadasterpersoonIdentificatie)</t>
+      <t xml:space="preserve"> KadastraalPersoonIdentificatie)</t>
     </r>
+  </si>
+  <si>
+    <t>/beslagen/?BSN=132451412&amp;type=beslaglegger
+/beslagen/?KadastraalPersoonIdentificatie=NL.IMKAD.PERSOON.132451412&amp;type=beslaglegger</t>
   </si>
   <si>
     <r>
@@ -726,7 +759,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, KadasterpersoonIdentificatie) </t>
+      <t xml:space="preserve">, KadastraalPersoonIdentificatie) </t>
     </r>
     <r>
       <rPr>
@@ -738,39 +771,6 @@
       </rPr>
       <t>+ periodeVanTotEnMet</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">kadastraal onroerende zaken waarop beslag is gelegd </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gedurende de opgegeven periode</t>
-    </r>
-  </si>
-  <si>
-    <t>BUITEN SCOPE KWARTIERMAKERSFASE</t>
-  </si>
-  <si>
-    <t>aangrenzende percelen vinden en inzien</t>
-  </si>
-  <si>
-    <t>raadpleeg aangrenzende percelen + appartmentsrechten</t>
-  </si>
-  <si>
-    <t>aangrenzende percelen + appartementsrechten</t>
-  </si>
-  <si>
-    <t>aangrenzende percelen + appartementsrechten vinden</t>
-  </si>
-  <si>
-    <t>Kan ook met contour!</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -913,20 +913,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1271,96 +1268,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4176BF7-E49A-487A-88AA-BEDDF16313F5}">
   <dimension ref="A1:AR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="88" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="60.26953125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="44" width="6.54296875" style="2" customWidth="1"/>
+    <col min="8" max="44" width="6.5703125" style="2" customWidth="1"/>
     <col min="45" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-    </row>
-    <row r="2" spans="1:44" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+    </row>
+    <row r="2" spans="1:44" ht="120" x14ac:dyDescent="0.25">
       <c r="C2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2">
         <v>35</v>
@@ -1381,24 +1377,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2">
         <v>83</v>
@@ -1413,19 +1409,19 @@
         <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="Q3" s="2">
         <v>35</v>
@@ -1443,139 +1439,139 @@
         <v>164</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2">
         <v>6</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1">
         <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" s="8" customFormat="1" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" s="8" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:44" s="8" customFormat="1" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" s="8" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="H7" s="8">
         <v>170</v>
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:44" s="8" customFormat="1" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" s="8" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="H8" s="8">
         <v>130</v>
@@ -1584,49 +1580,51 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="8" customFormat="1" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" s="8" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="H9" s="8">
         <v>81</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:44" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:44" ht="174" x14ac:dyDescent="0.35">
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:44" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="H11" s="2">
         <v>34</v>
@@ -1641,33 +1639,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="J12" s="2">
         <v>118</v>
@@ -1676,10 +1674,10 @@
         <v>43</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N12" s="2">
         <v>127</v>
@@ -1694,39 +1692,39 @@
         <v>28</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U12" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H13" s="2">
         <v>43</v>
@@ -1768,28 +1766,28 @@
         <v>116</v>
       </c>
       <c r="U13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="W13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W13" s="2" t="s">
+      <c r="X13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="Y13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Z13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="AC13" s="2">
         <v>164</v>
@@ -1807,45 +1805,45 @@
         <v>159</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK13" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>5</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="H14" s="2">
         <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="2">
         <v>75</v>
@@ -1854,33 +1852,33 @@
         <v>67</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" s="8" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" s="8" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>3</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="H15" s="8">
         <v>126</v>
@@ -1916,35 +1914,35 @@
         <v>28</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:44" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="2">
         <v>135</v>
@@ -1956,39 +1954,39 @@
         <v>29</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="18" t="s">
+    </row>
+    <row r="17" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="H17" s="2">
         <v>133</v>
@@ -2000,30 +1998,30 @@
         <v>66</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>6</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18" s="2">
         <v>132</v>
@@ -2035,62 +2033,62 @@
         <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>7</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="2">
         <v>68</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="8" customFormat="1" ht="81.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="14" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>8</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>164</v>
+      <c r="B20" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>145</v>
       </c>
       <c r="H20" s="14">
         <v>160</v>
@@ -2102,14 +2100,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="26" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="1"/>
@@ -2118,35 +2116,35 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="87" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="D27" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H28" s="2">
         <v>119</v>
@@ -2158,88 +2156,88 @@
         <v>73</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O28" s="2">
         <v>77</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H30" s="2">
         <v>75</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H35" s="2">
         <v>82</v>
@@ -2260,21 +2258,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H36" s="2">
         <v>171</v>
@@ -2292,23 +2290,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="8" customFormat="1" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="8" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="H37" s="8">
         <v>123</v>
@@ -2317,7 +2315,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="8" customFormat="1" ht="86.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="8" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="6"/>
@@ -2344,32 +2342,32 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="F1" s="9">
         <v>45</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2575,18 +2573,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2609,26 +2607,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DC96D6-6D05-4F03-A098-90EB0CD5BFBC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABFADEB-285D-4547-8543-4E89939D3C55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="440e0acd-8877-4043-b1d6-a780d5cbc608"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABFADEB-285D-4547-8543-4E89939D3C55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DC96D6-6D05-4F03-A098-90EB0CD5BFBC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="440e0acd-8877-4043-b1d6-a780d5cbc608"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>